--- a/biology/Médecine/Syndrome_d'avance_de_phase_du_sommeil/Syndrome_d'avance_de_phase_du_sommeil.xlsx
+++ b/biology/Médecine/Syndrome_d'avance_de_phase_du_sommeil/Syndrome_d'avance_de_phase_du_sommeil.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Syndrome_d%27avance_de_phase_du_sommeil</t>
+          <t>Syndrome_d'avance_de_phase_du_sommeil</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le syndrome d'avance de phase du sommeil (SAPS) est un trouble du sommeil qui fait partie des troubles du rythme veille-sommeil, le rythme dit circadien.
 Il s'agit d'une dyssomnie.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Syndrome_d%27avance_de_phase_du_sommeil</t>
+          <t>Syndrome_d'avance_de_phase_du_sommeil</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,13 +526,15 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Manifestations cliniques
-Dans ce trouble, les horaires du sommeil sont très avancés par rapport aux horaires habituels (coucher 18-21 h, réveil 1-3 h) et une somnolence apparait en fin d'après-midi.
+          <t>Manifestations cliniques</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans ce trouble, les horaires du sommeil sont très avancés par rapport aux horaires habituels (coucher 18-21 h, réveil 1-3 h) et une somnolence apparait en fin d'après-midi.
 La plainte est donc celle d'une insomnie matinale associée à une somnolence en seconde partie de journée.
 On ne parle pas de SAPS si le sommeil se déroule aux heures choisies sans contrainte.
-Examens paracliniques
-On demande aux patients de réaliser un agenda du sommeil tenu pendant un mois idéalement, avec éventuellement des périodes de vacances incluses. Si la tenue de l'agenda pose des problèmes, on peut réaliser une actimétrie (l'actimètre est une sorte de montre qui enregistre les mouvements sur les 24 h, ce qui permet d'objectiver les horaires de sommeil de la personne).
-Enfin, dans le meilleur des cas, on peut enregistrer le patient en polygraphie du sommeil et faire des dosages à intervalles réguliers du taux de mélatonine (montrant un décalage du pic de mélatonine).
 </t>
         </is>
       </c>
@@ -531,7 +545,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Syndrome_d%27avance_de_phase_du_sommeil</t>
+          <t>Syndrome_d'avance_de_phase_du_sommeil</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,10 +560,50 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Diagnostic</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Examens paracliniques</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">On demande aux patients de réaliser un agenda du sommeil tenu pendant un mois idéalement, avec éventuellement des périodes de vacances incluses. Si la tenue de l'agenda pose des problèmes, on peut réaliser une actimétrie (l'actimètre est une sorte de montre qui enregistre les mouvements sur les 24 h, ce qui permet d'objectiver les horaires de sommeil de la personne).
+Enfin, dans le meilleur des cas, on peut enregistrer le patient en polygraphie du sommeil et faire des dosages à intervalles réguliers du taux de mélatonine (montrant un décalage du pic de mélatonine).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Syndrome_d'avance_de_phase_du_sommeil</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Syndrome_d%27avance_de_phase_du_sommeil</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Épidémiologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">La fréquence de la maladie est évaluée à 1 % de la population générale d'âge moyen et au-dessus (beaucoup plus rare que le syndrome de retard de phase du sommeil).
 La révélation du SAPS est souvent tardive, contrairement au syndrome de retard de phase du sommeil.
@@ -558,43 +612,153 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Syndrome_d%27avance_de_phase_du_sommeil</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Syndrome_d'avance_de_phase_du_sommeil</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
         <is>
           <t>Portail:Médecine/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Syndrome_d%27avance_de_phase_du_sommeil</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>Traitement</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Chronothérapie
-Le principe consiste à avancer les horaires de coucher de 3 h tous les 2 jours jusqu'à un recalage (coucher 22-23 h). Le protocole est assez contraignant et nécessite une grande motivation. La chronothérapie, assez souvent est faite dans le cadre d'une hospitalisation.
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Chronothérapie</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le principe consiste à avancer les horaires de coucher de 3 h tous les 2 jours jusqu'à un recalage (coucher 22-23 h). Le protocole est assez contraignant et nécessite une grande motivation. La chronothérapie, assez souvent est faite dans le cadre d'une hospitalisation.
 Elle donne d'assez bons résultats.
-Luxthérapie
-Le principe consiste à exposer le patient à une source de lumière en fin de journée pour recaler l'horloge interne.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Syndrome_d'avance_de_phase_du_sommeil</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Syndrome_d%27avance_de_phase_du_sommeil</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Traitement</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Luxthérapie</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le principe consiste à exposer le patient à une source de lumière en fin de journée pour recaler l'horloge interne.
 On demandera également d'éviter de s'exposer à la lumière le matin.
 Les améliorations existent, mais souvent transitoires lorsqu'on arrête la luxthérapie.
-Mesures comportementales
-Faire la sieste l'après-midi et éviter l'exposition à la lumière le matin.
-Mélatonine
-Prise à un horaire précis, elle permettrait de décaler le pic du taux de mélatonine. Cependant aucun résultat vraiment probant n'a été montré.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Syndrome_d'avance_de_phase_du_sommeil</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Syndrome_d%27avance_de_phase_du_sommeil</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Traitement</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Mesures comportementales</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Faire la sieste l'après-midi et éviter l'exposition à la lumière le matin.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Syndrome_d'avance_de_phase_du_sommeil</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Syndrome_d%27avance_de_phase_du_sommeil</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Traitement</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Mélatonine</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Prise à un horaire précis, elle permettrait de décaler le pic du taux de mélatonine. Cependant aucun résultat vraiment probant n'a été montré.
  Portail de la médecine   Portail Sommeil et Rêve                    </t>
         </is>
       </c>
